--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_18 22.文件操作.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_18 22.文件操作.xlsx
@@ -77,71 +77,261 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541982</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>65952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="16744950"/>
+          <a:ext cx="7542857" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>370818</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8829675" y="16868775"/>
+          <a:ext cx="5257143" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495640</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="31689675"/>
+          <a:ext cx="10801690" cy="6324600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503524</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>94630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="38338125"/>
+          <a:ext cx="10409524" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294332</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>8802</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="571500"/>
-          <a:ext cx="7542857" cy="5780952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:colOff>684892</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="523875"/>
+          <a:ext cx="7266667" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>551793</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114144</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8324850" y="752475"/>
-          <a:ext cx="5257143" cy="1247619"/>
+      <xdr:colOff>103839</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="2600325"/>
+          <a:ext cx="7485714" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142263</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="8543925"/>
+          <a:ext cx="4895238" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -153,33 +343,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133690</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990600" y="6667500"/>
-          <a:ext cx="10801690" cy="6324600"/>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>656132</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="10944225"/>
+          <a:ext cx="8742857" cy="5314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>70177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>91580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="18415327"/>
+          <a:ext cx="11601450" cy="5336353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -191,33 +419,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>379699</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>27955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="13411200"/>
-          <a:ext cx="10409524" cy="4961905"/>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541906</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>56696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="24374475"/>
+          <a:ext cx="8152381" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122915</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="28508325"/>
+          <a:ext cx="7276190" cy="2704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="W214" sqref="W214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_18 22.文件操作.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_18 22.文件操作.xlsx
@@ -190,16 +190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>503524</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>94630</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284449</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>132730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -216,7 +216,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="38338125"/>
+          <a:off x="1533525" y="64950975"/>
           <a:ext cx="10409524" cy="4961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -484,6 +484,1108 @@
         <a:xfrm>
           <a:off x="1762125" y="28508325"/>
           <a:ext cx="7276190" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132268</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>152217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="38461950"/>
+          <a:ext cx="8657143" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>399293</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>75758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="40090725"/>
+          <a:ext cx="6057143" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494438</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>9361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="43957875"/>
+          <a:ext cx="6895238" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104119</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>104406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="45500925"/>
+          <a:ext cx="5247619" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618070</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>75627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="48644175"/>
+          <a:ext cx="8438095" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>398962</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>75768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="53540025"/>
+          <a:ext cx="8704762" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>684834</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>27707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="57207150"/>
+          <a:ext cx="7723809" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>589836</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>85352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="59855100"/>
+          <a:ext cx="5714286" cy="2980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351714</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>37607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="70161150"/>
+          <a:ext cx="5685714" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>370507</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>85329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="76123800"/>
+          <a:ext cx="7742857" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304325</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>123227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="75066525"/>
+          <a:ext cx="3800000" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141482</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>9230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="80972025"/>
+          <a:ext cx="11142857" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331897</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>27952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="83686650"/>
+          <a:ext cx="11819047" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>503748</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>75526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="89154000"/>
+          <a:ext cx="8619048" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103809</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>132174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="88792050"/>
+          <a:ext cx="7723809" cy="9409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570507</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>9226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="99460050"/>
+          <a:ext cx="7942857" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465703</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>94909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="102298500"/>
+          <a:ext cx="8171428" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373943</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="105479850"/>
+          <a:ext cx="3145718" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>622</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122806</xdr:colOff>
+      <xdr:row>647</xdr:row>
+      <xdr:rowOff>104231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="106680000"/>
+          <a:ext cx="8152381" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>622</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313854</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>161240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="106641900"/>
+          <a:ext cx="3771429" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>659</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609142</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>28382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="113014125"/>
+          <a:ext cx="3666667" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>657</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>332730</xdr:colOff>
+      <xdr:row>694</xdr:row>
+      <xdr:rowOff>142068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="112671225"/>
+          <a:ext cx="5161905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>663</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361795</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>47545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="113766600"/>
+          <a:ext cx="1238095" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>701</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390158</xdr:colOff>
+      <xdr:row>706</xdr:row>
+      <xdr:rowOff>37996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="120253125"/>
+          <a:ext cx="2933333" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399317</xdr:colOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>101845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53015</xdr:colOff>
+      <xdr:row>739</xdr:row>
+      <xdr:rowOff>139082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6597894" y="117896787"/>
+          <a:ext cx="3786083" cy="6778007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>743</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608703</xdr:colOff>
+      <xdr:row>774</xdr:row>
+      <xdr:rowOff>161251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="127473075"/>
+          <a:ext cx="7171428" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>189225</xdr:colOff>
+      <xdr:row>772</xdr:row>
+      <xdr:rowOff>66105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="127863600"/>
+          <a:ext cx="10200000" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>776</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85067</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>142201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="133111875"/>
+          <a:ext cx="5266667" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>284665</xdr:colOff>
+      <xdr:row>788</xdr:row>
+      <xdr:rowOff>56948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="133540500"/>
+          <a:ext cx="8676190" cy="1619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="W214" sqref="W214"/>
+    <sheetView tabSelected="1" topLeftCell="A757" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC790" sqref="AC790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
